--- a/kj_chatbot_data.xlsx
+++ b/kj_chatbot_data.xlsx
@@ -1,12 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7miWXftEq4hVagrppLA4UuhJqIylIg=="/>
@@ -16,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="243">
   <si>
     <t>request</t>
   </si>
@@ -76,9 +84,6 @@
   </si>
   <si>
     <t>다행이네요. 열심히 배우고 있어요</t>
-  </si>
-  <si>
-    <t>메리크리스마스</t>
   </si>
   <si>
     <t>메리|크리</t>
@@ -720,28 +725,288 @@
   </si>
   <si>
     <t>농구:8월 20일 21일 27일  티볼: 8월 27일 28일</t>
+  </si>
+  <si>
+    <t>메리크리스마스</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>체육대회 언제야</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>체육</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>|</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>대회</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>|</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>언제</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>월</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>일</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>입니다</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>중간고사가 언제야?</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>중간|고사|언제</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>월</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 29</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>일</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>~30</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>일</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>입니다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>중간고사 과목 알려줘</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>중간|고사|과목</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>수학 영어 과학 국어 기가 총 5개입니다</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="6">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Docs-Calibri"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -749,7 +1014,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -759,41 +1024,58 @@
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+  <cellXfs count="7">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf quotePrefix="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -983,26 +1265,28 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C998"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="A87" sqref="A87"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="26.57"/>
-    <col customWidth="1" min="2" max="2" width="25.57"/>
-    <col customWidth="1" min="3" max="3" width="38.71"/>
-    <col customWidth="1" min="4" max="26" width="8.71"/>
+    <col min="1" max="1" width="26.5703125" customWidth="1"/>
+    <col min="2" max="2" width="25.5703125" customWidth="1"/>
+    <col min="3" max="3" width="38.7109375" customWidth="1"/>
+    <col min="4" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16.5" customHeight="1">
+    <row r="1" spans="1:3" ht="16.5" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1013,7 +1297,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" ht="16.5" customHeight="1">
+    <row r="2" spans="1:3" ht="16.5" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -1024,7 +1308,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" ht="16.5" customHeight="1">
+    <row r="3" spans="1:3" ht="16.5" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -1035,7 +1319,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" ht="16.5" customHeight="1">
+    <row r="4" spans="1:3" ht="16.5" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -1046,7 +1330,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" ht="16.5" customHeight="1">
+    <row r="5" spans="1:3" ht="16.5" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
@@ -1057,7 +1341,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" ht="16.5" customHeight="1">
+    <row r="6" spans="1:3" ht="16.5" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>14</v>
       </c>
@@ -1068,7 +1352,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" ht="16.5" customHeight="1">
+    <row r="7" spans="1:3" ht="16.5" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>17</v>
       </c>
@@ -1079,855 +1363,885 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" ht="16.5" customHeight="1">
-      <c r="A8" s="1" t="s">
+    <row r="8" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A8" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="1" t="s">
+    </row>
+    <row r="9" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A9" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="9" ht="16.5" customHeight="1">
-      <c r="A9" s="2" t="s">
+      <c r="B9" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="C9" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="2" t="s">
+    </row>
+    <row r="10" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A10" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="10" ht="16.5" customHeight="1">
-      <c r="A10" s="1" t="s">
+      <c r="B10" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="C10" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="1" t="s">
+    </row>
+    <row r="11" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A11" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="11" ht="16.5" customHeight="1">
-      <c r="A11" s="1" t="s">
+      <c r="B11" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="C11" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="2" t="s">
+    </row>
+    <row r="12" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A12" s="1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="12" ht="16.5" customHeight="1">
-      <c r="A12" s="1" t="s">
+      <c r="B12" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="C12" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="1" t="s">
+    </row>
+    <row r="13" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A13" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="13" ht="16.5" customHeight="1">
-      <c r="A13" s="1" t="s">
+      <c r="B13" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C13" s="1" t="s">
+    </row>
+    <row r="14" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A14" s="1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="14" ht="16.5" customHeight="1">
-      <c r="A14" s="1" t="s">
+      <c r="B14" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="C14" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C14" s="1" t="s">
+    </row>
+    <row r="15" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A15" s="2" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="15" ht="16.5" customHeight="1">
-      <c r="A15" s="2" t="s">
+      <c r="B15" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="C15" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C15" s="3" t="s">
+    </row>
+    <row r="16" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A16" s="2" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="16" ht="16.5" customHeight="1">
-      <c r="A16" s="2" t="s">
+      <c r="B16" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="C16" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C16" s="2" t="s">
+    </row>
+    <row r="17" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A17" s="2" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="17" ht="16.5" customHeight="1">
-      <c r="A17" s="2" t="s">
+      <c r="B17" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="C17" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C17" s="2" t="s">
+    </row>
+    <row r="18" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A18" s="2" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="18" ht="16.5" customHeight="1">
-      <c r="A18" s="2" t="s">
+      <c r="B18" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="C18" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C18" s="2" t="s">
+    </row>
+    <row r="19" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A19" s="2" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="19" ht="16.5" customHeight="1">
-      <c r="A19" s="2" t="s">
+      <c r="B19" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="C19" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C19" s="2" t="s">
+    </row>
+    <row r="20" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A20" s="2" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="20" ht="16.5" customHeight="1">
-      <c r="A20" s="2" t="s">
+      <c r="B20" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="C20" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A21" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C20" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="21" ht="16.5" customHeight="1">
-      <c r="A21" s="2" t="s">
+      <c r="B21" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="C21" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C21" s="2" t="s">
+    </row>
+    <row r="22" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A22" s="2" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="22" ht="16.5" customHeight="1">
-      <c r="A22" s="2" t="s">
+      <c r="B22" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="C22" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C22" s="2" t="s">
+    </row>
+    <row r="23" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A23" s="2" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="23" ht="16.5" customHeight="1">
-      <c r="A23" s="2" t="s">
+      <c r="B23" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="C23" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C23" s="2" t="s">
+    </row>
+    <row r="24" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A24" s="2" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="24" ht="16.5" customHeight="1">
-      <c r="A24" s="2" t="s">
+      <c r="B24" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="C24" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C24" s="2" t="s">
+    </row>
+    <row r="25" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A25" s="2" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="25" ht="16.5" customHeight="1">
-      <c r="A25" s="2" t="s">
+      <c r="B25" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="C25" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C25" s="2" t="s">
+    </row>
+    <row r="26" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A26" s="2" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="26" ht="16.5" customHeight="1">
-      <c r="A26" s="2" t="s">
+      <c r="B26" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="C26" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C26" s="2" t="s">
+    </row>
+    <row r="27" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A27" s="2" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="27" ht="16.5" customHeight="1">
-      <c r="A27" s="2" t="s">
+      <c r="B27" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="C27" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C27" s="2" t="s">
+    </row>
+    <row r="28" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A28" s="2" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="28" ht="16.5" customHeight="1">
-      <c r="A28" s="2" t="s">
+      <c r="B28" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="C28" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C28" s="2" t="s">
+    </row>
+    <row r="29" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A29" s="2" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="29" ht="16.5" customHeight="1">
-      <c r="A29" s="2" t="s">
+      <c r="B29" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="C29" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A30" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C29" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="30" ht="16.5" customHeight="1">
-      <c r="A30" s="2" t="s">
+      <c r="B30" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="C30" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C30" s="2" t="s">
+    </row>
+    <row r="31" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A31" s="2" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="31" ht="16.5" customHeight="1">
-      <c r="A31" s="2" t="s">
+      <c r="B31" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="C31" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C31" s="2" t="s">
+    </row>
+    <row r="32" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A32" s="2" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="32" ht="16.5" customHeight="1">
-      <c r="A32" s="2" t="s">
+      <c r="B32" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="C32" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C32" s="2" t="s">
+    </row>
+    <row r="33" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A33" s="2" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="33" ht="16.5" customHeight="1">
-      <c r="A33" s="2" t="s">
+      <c r="B33" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="C33" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="C33" s="2" t="s">
+    </row>
+    <row r="34" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A34" s="2" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="34" ht="16.5" customHeight="1">
-      <c r="A34" s="2" t="s">
+      <c r="B34" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="C34" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="C34" s="2" t="s">
+    </row>
+    <row r="35" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A35" s="2" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="35" ht="16.5" customHeight="1">
-      <c r="A35" s="2" t="s">
+      <c r="B35" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="C35" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C35" s="2" t="s">
+    </row>
+    <row r="36" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A36" s="2" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="36" ht="16.5" customHeight="1">
-      <c r="A36" s="2" t="s">
+      <c r="B36" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="C36" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A37" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="C36" s="2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="37" ht="16.5" customHeight="1">
-      <c r="A37" s="2" t="s">
+      <c r="B37" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="C37" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="C37" s="2" t="s">
+    </row>
+    <row r="38" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A38" s="2" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="38" ht="16.5" customHeight="1">
-      <c r="A38" s="2" t="s">
+      <c r="B38" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="C38" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A39" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C38" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="39" ht="16.5" customHeight="1">
-      <c r="A39" s="2" t="s">
+      <c r="B39" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="C39" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A40" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="C39" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="40" ht="16.5" customHeight="1">
-      <c r="A40" s="2" t="s">
+      <c r="B40" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="C40" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="C40" s="2" t="s">
+    </row>
+    <row r="41" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A41" s="2" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="41" ht="16.5" customHeight="1">
-      <c r="A41" s="2" t="s">
+      <c r="B41" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="C41" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="C41" s="2" t="s">
+    </row>
+    <row r="42" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A42" s="2" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="42" ht="16.5" customHeight="1">
-      <c r="A42" s="2" t="s">
+      <c r="B42" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="C42" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A43" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C42" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="43" ht="16.5" customHeight="1">
-      <c r="A43" s="2" t="s">
+      <c r="B43" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="B43" s="2" t="s">
+      <c r="C43" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A44" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="C43" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="44" ht="16.5" customHeight="1">
-      <c r="A44" s="2" t="s">
+      <c r="B44" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="B44" s="2" t="s">
+      <c r="C44" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="C44" s="2" t="s">
+    </row>
+    <row r="45" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A45" s="2" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="45" ht="16.5" customHeight="1">
-      <c r="A45" s="2" t="s">
+      <c r="B45" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="B45" s="2" t="s">
+      <c r="C45" s="4" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A46" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="C45" s="4" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="46" ht="16.5" customHeight="1">
-      <c r="A46" s="2" t="s">
+      <c r="B46" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="B46" s="2" t="s">
+      <c r="C46" s="4" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A47" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="C46" s="4" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="47" ht="16.5" customHeight="1">
-      <c r="A47" s="2" t="s">
+      <c r="B47" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="B47" s="2" t="s">
+      <c r="C47" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="C47" s="2" t="s">
+    </row>
+    <row r="48" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A48" s="2" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="48" ht="16.5" customHeight="1">
-      <c r="A48" s="2" t="s">
+      <c r="B48" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="B48" s="2" t="s">
+      <c r="C48" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="C48" s="2" t="s">
+    </row>
+    <row r="49" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A49" s="2" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="49" ht="16.5" customHeight="1">
-      <c r="A49" s="2" t="s">
+      <c r="B49" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="B49" s="2" t="s">
+      <c r="C49" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="C49" s="2" t="s">
+    </row>
+    <row r="50" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A50" s="2" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="50" ht="16.5" customHeight="1">
-      <c r="A50" s="2" t="s">
+      <c r="B50" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="B50" s="2" t="s">
+      <c r="C50" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="C50" s="2" t="s">
+    </row>
+    <row r="51" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A51" s="2" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="51" ht="16.5" customHeight="1">
-      <c r="A51" s="2" t="s">
+      <c r="B51" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="B51" s="2" t="s">
+      <c r="C51" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="C51" s="2" t="s">
+    </row>
+    <row r="52" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A52" s="2" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="52" ht="16.5" customHeight="1">
-      <c r="A52" s="2" t="s">
+      <c r="B52" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="B52" s="2" t="s">
+      <c r="C52" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="C52" s="2" t="s">
+    </row>
+    <row r="53" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A53" s="2" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="53" ht="16.5" customHeight="1">
-      <c r="A53" s="2" t="s">
+      <c r="B53" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="B53" s="2" t="s">
+      <c r="C53" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="C53" s="2" t="s">
+    </row>
+    <row r="54" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A54" s="2" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="54" ht="16.5" customHeight="1">
-      <c r="A54" s="2" t="s">
+      <c r="B54" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="B54" s="2" t="s">
+      <c r="C54" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="C54" s="2" t="s">
+    </row>
+    <row r="55" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A55" s="2" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="55" ht="16.5" customHeight="1">
-      <c r="A55" s="2" t="s">
+      <c r="B55" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="B55" s="2" t="s">
+      <c r="C55" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="C55" s="2" t="s">
+    </row>
+    <row r="56" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A56" s="2" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="56" ht="16.5" customHeight="1">
-      <c r="A56" s="2" t="s">
+      <c r="B56" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="B56" s="2" t="s">
+      <c r="C56" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="C56" s="2" t="s">
+    </row>
+    <row r="57" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A57" s="2" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="57" ht="16.5" customHeight="1">
-      <c r="A57" s="2" t="s">
+      <c r="B57" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="B57" s="2" t="s">
+      <c r="C57" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="C57" s="2" t="s">
+    </row>
+    <row r="58" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A58" s="2" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="58" ht="16.5" customHeight="1">
-      <c r="A58" s="2" t="s">
+      <c r="B58" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="B58" s="2" t="s">
+      <c r="C58" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="C58" s="2" t="s">
+    </row>
+    <row r="59" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A59" s="2" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="59" ht="16.5" customHeight="1">
-      <c r="A59" s="2" t="s">
+      <c r="B59" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="B59" s="2" t="s">
+      <c r="C59" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="C59" s="2" t="s">
+    </row>
+    <row r="60" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A60" s="2" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="60" ht="16.5" customHeight="1">
-      <c r="A60" s="2" t="s">
+      <c r="B60" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="B60" s="2" t="s">
+      <c r="C60" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="C60" s="2" t="s">
+    </row>
+    <row r="61" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A61" s="2" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="61" ht="16.5" customHeight="1">
-      <c r="A61" s="2" t="s">
+      <c r="B61" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="B61" s="2" t="s">
+      <c r="C61" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="C61" s="2" t="s">
+    </row>
+    <row r="62" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A62" s="2" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="62" ht="16.5" customHeight="1">
-      <c r="A62" s="2" t="s">
+      <c r="B62" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="B62" s="2" t="s">
+      <c r="C62" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="C62" s="2" t="s">
+    </row>
+    <row r="63" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A63" s="2" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="63" ht="16.5" customHeight="1">
-      <c r="A63" s="2" t="s">
+      <c r="B63" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="B63" s="2" t="s">
+      <c r="C63" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="C63" s="2" t="s">
+    </row>
+    <row r="64" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A64" s="2" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="64" ht="16.5" customHeight="1">
-      <c r="A64" s="2" t="s">
+      <c r="B64" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="B64" s="2" t="s">
+      <c r="C64" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="C64" s="2" t="s">
+    </row>
+    <row r="65" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A65" s="2" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="65" ht="16.5" customHeight="1">
-      <c r="A65" s="2" t="s">
+      <c r="B65" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="B65" s="2" t="s">
+      <c r="C65" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="C65" s="2" t="s">
+    </row>
+    <row r="66" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A66" s="2" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="66" ht="16.5" customHeight="1">
-      <c r="A66" s="2" t="s">
+      <c r="B66" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="B66" s="2" t="s">
+      <c r="C66" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="C66" s="2" t="s">
+    </row>
+    <row r="67" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A67" s="2" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="67" ht="16.5" customHeight="1">
-      <c r="A67" s="2" t="s">
+      <c r="B67" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="B67" s="2" t="s">
+      <c r="C67" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="C67" s="2" t="s">
+    </row>
+    <row r="68" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A68" s="2" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="68" ht="16.5" customHeight="1">
-      <c r="A68" s="2" t="s">
+      <c r="B68" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="B68" s="2" t="s">
+      <c r="C68" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="C68" s="2" t="s">
+    </row>
+    <row r="69" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A69" s="2" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="69" ht="16.5" customHeight="1">
-      <c r="A69" s="2" t="s">
+      <c r="B69" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="B69" s="2" t="s">
+      <c r="C69" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="C69" s="2" t="s">
+    </row>
+    <row r="70" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A70" s="2" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="70" ht="16.5" customHeight="1">
-      <c r="A70" s="2" t="s">
+      <c r="B70" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="B70" s="2" t="s">
+      <c r="C70" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="C70" s="2" t="s">
+    </row>
+    <row r="71" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A71" s="2" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="71" ht="16.5" customHeight="1">
-      <c r="A71" s="2" t="s">
+      <c r="B71" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="B71" s="2" t="s">
+      <c r="C71" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="C71" s="2" t="s">
+    </row>
+    <row r="72" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A72" s="2" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="72" ht="16.5" customHeight="1">
-      <c r="A72" s="2" t="s">
+      <c r="B72" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="B72" s="2" t="s">
+      <c r="C72" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="C72" s="2" t="s">
+    </row>
+    <row r="73" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A73" s="2" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="73" ht="16.5" customHeight="1">
-      <c r="A73" s="2" t="s">
+      <c r="B73" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="B73" s="2" t="s">
+      <c r="C73" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="C73" s="2" t="s">
+    </row>
+    <row r="74" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A74" s="2" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="74" ht="16.5" customHeight="1">
-      <c r="A74" s="2" t="s">
+      <c r="B74" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="B74" s="2" t="s">
+      <c r="C74" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="C74" s="2" t="s">
+    </row>
+    <row r="75" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A75" s="2" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="75" ht="16.5" customHeight="1">
-      <c r="A75" s="2" t="s">
+      <c r="B75" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="B75" s="2" t="s">
+      <c r="C75" s="2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A76" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="C75" s="2" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="76" ht="16.5" customHeight="1">
-      <c r="A76" s="2" t="s">
+      <c r="B76" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="B76" s="2" t="s">
+      <c r="C76" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="C76" s="2" t="s">
+    </row>
+    <row r="77" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A77" s="2" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="77" ht="16.5" customHeight="1">
-      <c r="A77" s="2" t="s">
+      <c r="B77" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="B77" s="2" t="s">
+      <c r="C77" s="2" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A78" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="C77" s="2" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="78" ht="16.5" customHeight="1">
-      <c r="A78" s="2" t="s">
+      <c r="B78" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="B78" s="2" t="s">
+      <c r="C78" s="2" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A79" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="C78" s="2" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="79" ht="16.5" customHeight="1">
-      <c r="A79" s="2" t="s">
+      <c r="B79" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="B79" s="2" t="s">
+      <c r="C79" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A80" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="C79" s="2" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="80" ht="16.5" customHeight="1">
-      <c r="A80" s="2" t="s">
+      <c r="B80" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="B80" s="2" t="s">
+      <c r="C80" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="C80" s="2" t="s">
+    </row>
+    <row r="81" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A81" s="2" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="81" ht="16.5" customHeight="1">
-      <c r="A81" s="2" t="s">
+      <c r="B81" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="B81" s="2" t="s">
+      <c r="C81" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="C81" s="2" t="s">
+    </row>
+    <row r="82" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A82" s="2" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="82" ht="16.5" customHeight="1">
-      <c r="A82" s="2" t="s">
+      <c r="B82" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="B82" s="2" t="s">
+      <c r="C82" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="C82" s="2" t="s">
+    </row>
+    <row r="83" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A83" s="2" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="83" ht="16.5" customHeight="1">
-      <c r="A83" s="2" t="s">
+      <c r="B83" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="B83" s="2" t="s">
+      <c r="C83" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="C83" s="2" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="84" ht="16.5" customHeight="1"/>
-    <row r="85" ht="16.5" customHeight="1"/>
-    <row r="86" ht="16.5" customHeight="1"/>
-    <row r="87" ht="16.5" customHeight="1"/>
-    <row r="88" ht="16.5" customHeight="1"/>
-    <row r="89" ht="16.5" customHeight="1"/>
-    <row r="90" ht="16.5" customHeight="1"/>
-    <row r="91" ht="16.5" customHeight="1"/>
-    <row r="92" ht="16.5" customHeight="1"/>
-    <row r="93" ht="16.5" customHeight="1"/>
-    <row r="94" ht="16.5" customHeight="1"/>
-    <row r="95" ht="16.5" customHeight="1"/>
-    <row r="96" ht="16.5" customHeight="1"/>
+    </row>
+    <row r="84" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A84" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="B84" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="C84" s="6" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A85" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="B85" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="C85" s="6" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A86" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="B86" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="C86" s="5" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" ht="16.5" customHeight="1"/>
+    <row r="88" spans="1:3" ht="16.5" customHeight="1"/>
+    <row r="89" spans="1:3" ht="16.5" customHeight="1"/>
+    <row r="90" spans="1:3" ht="16.5" customHeight="1"/>
+    <row r="91" spans="1:3" ht="16.5" customHeight="1"/>
+    <row r="92" spans="1:3" ht="16.5" customHeight="1"/>
+    <row r="93" spans="1:3" ht="16.5" customHeight="1"/>
+    <row r="94" spans="1:3" ht="16.5" customHeight="1"/>
+    <row r="95" spans="1:3" ht="16.5" customHeight="1"/>
+    <row r="96" spans="1:3" ht="16.5" customHeight="1"/>
     <row r="97" ht="16.5" customHeight="1"/>
     <row r="98" ht="16.5" customHeight="1"/>
     <row r="99" ht="16.5" customHeight="1"/>
@@ -2831,9 +3145,8 @@
     <row r="997" ht="16.5" customHeight="1"/>
     <row r="998" ht="16.5" customHeight="1"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <drawing r:id="rId1"/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>